--- a/Dataset/Dataset_Model_Evaluation/Results_Combined_US_Primary_MG.xlsx
+++ b/Dataset/Dataset_Model_Evaluation/Results_Combined_US_Primary_MG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://psuadacae-my.sharepoint.com/personal/a00021999_sorbonne_ae/Documents/Documents/Course Materials/Intership/Bayesian Neural Network/Paper/Models - macroeconomic + google/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{0033A714-E5FA-4C29-A4E2-9A2557343974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E61025-ECA4-448C-8C30-418129554984}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{0033A714-E5FA-4C29-A4E2-9A2557343974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB159470-4A6A-48DC-9028-43C807A6D26B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Horizon</t>
   </si>
@@ -60,24 +60,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>ARFIMA</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
-    <t>ARNN</t>
-  </si>
-  <si>
-    <t>DLinear</t>
-  </si>
-  <si>
-    <t>NLinear</t>
-  </si>
-  <si>
-    <t>BSTS</t>
   </si>
   <si>
     <t>ARIMAX</t>
@@ -126,7 +108,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +133,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,9 +161,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -213,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,28 +482,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -544,7 +513,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0.54025205298308798</v>
       </c>
       <c r="D2" s="5">
@@ -575,7 +544,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.53879662307430698</v>
       </c>
       <c r="D3" s="5">
@@ -606,7 +575,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.1779970730190099</v>
       </c>
       <c r="D4" s="5">
@@ -636,7 +605,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -666,7 +635,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1.1779970730190099</v>
       </c>
       <c r="D6" s="5">
@@ -699,7 +668,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2.3808779537334601</v>
       </c>
       <c r="D7" s="5">
@@ -729,7 +698,7 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2.32868484295473</v>
       </c>
       <c r="D8" s="5">
@@ -759,7 +728,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>5.3458395500154001</v>
       </c>
       <c r="D9" s="5">
@@ -789,7 +758,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.91905458834331899</v>
       </c>
       <c r="D10" s="5">
@@ -818,7 +787,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>7.38393605058174</v>
       </c>
       <c r="D11" s="5">
@@ -859,7 +828,7 @@
       <c r="E12" s="5">
         <v>8.1859614006511308</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>6.0289669499936602</v>
       </c>
       <c r="G12" s="5">
@@ -889,7 +858,7 @@
       <c r="E13" s="5">
         <v>8.4546147904793703</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>6.3428919366704406</v>
       </c>
       <c r="G13" s="5">
@@ -919,7 +888,7 @@
       <c r="E14" s="5">
         <v>20.230013426671</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>15.572150520645099</v>
       </c>
       <c r="G14" s="5">
@@ -949,7 +918,7 @@
       <c r="E15" s="5">
         <v>0.68844946086268699</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.52993729684216695</v>
       </c>
       <c r="G15" s="5">
@@ -979,7 +948,7 @@
       <c r="E16" s="5">
         <v>25.702045758297999</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>24.201008500451401</v>
       </c>
       <c r="G16" s="5">
@@ -1011,7 +980,7 @@
       <c r="E17" s="5">
         <v>13.7953612036597</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>11.3454515804431</v>
       </c>
       <c r="G17" s="5">
@@ -1041,7 +1010,7 @@
       <c r="E18" s="5">
         <v>15.295108480838602</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>12.133419090021901</v>
       </c>
       <c r="G18" s="5">
@@ -1071,7 +1040,7 @@
       <c r="E19" s="5">
         <v>36.038118915054199</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>29.360538674047898</v>
       </c>
       <c r="G19" s="5">
@@ -1101,7 +1070,7 @@
       <c r="E20" s="5">
         <v>1.03310224838763</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>0.84167652006276805</v>
       </c>
       <c r="G20" s="5">
@@ -1131,7 +1100,7 @@
       <c r="E21" s="5">
         <v>59.738700236470599</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>44.152548077445601</v>
       </c>
       <c r="G21" s="5">
@@ -1163,7 +1132,7 @@
       <c r="E22" s="5">
         <v>24.501868138193199</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>18.194026262874299</v>
       </c>
       <c r="G22" s="5">
@@ -1193,7 +1162,7 @@
       <c r="E23" s="5">
         <v>26.488584335953401</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>19.1816235022198</v>
       </c>
       <c r="G23" s="5">
@@ -1223,7 +1192,7 @@
       <c r="E24" s="5">
         <v>59.252726803745503</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>44.669670195902299</v>
       </c>
       <c r="G24" s="5">
@@ -1253,7 +1222,7 @@
       <c r="E25" s="5">
         <v>0.96522673634830103</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>0.72766878931587398</v>
       </c>
       <c r="G25" s="5">
@@ -1282,7 +1251,7 @@
       <c r="E26" s="5">
         <v>77.386803341743601</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>66.439770176521705</v>
       </c>
       <c r="G26" s="5">
@@ -1453,753 +1422,86 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C53" s="1"/>
+      <c r="A53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C54" s="1"/>
+      <c r="A54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C55" s="1"/>
+      <c r="A55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0.54025205298308798</v>
-      </c>
-      <c r="D57" s="5">
-        <v>6.1702639482820798</v>
-      </c>
-      <c r="E57" s="5">
-        <v>5.4911203254153902</v>
-      </c>
-      <c r="F57" s="5">
-        <v>4.7519279680000004</v>
-      </c>
-      <c r="G57" s="5">
-        <v>13.008683710761099</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1.4160725582782001</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="5">
-        <v>5.3879662307430697E-3</v>
-      </c>
-      <c r="D58" s="5">
-        <v>6.3666845696325206E-2</v>
-      </c>
-      <c r="E58" s="5">
-        <v>5.34438696593766E-2</v>
-      </c>
-      <c r="F58" s="5">
-        <v>4.6416442000000002E-2</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.122142285320398</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1.4061167416204799E-2</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1.1779970730190099</v>
-      </c>
-      <c r="D59" s="5">
-        <v>13.4540032392224</v>
-      </c>
-      <c r="E59" s="5">
-        <v>11.9731588898507</v>
-      </c>
-      <c r="F59" s="5">
-        <v>10.361380779999999</v>
-      </c>
-      <c r="G59" s="5">
-        <v>28.364892369203801</v>
-      </c>
-      <c r="H59" s="5">
-        <v>3.0876871630999299</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1.1779970730190099</v>
-      </c>
-      <c r="D61" s="5">
-        <v>13.4540032392224</v>
-      </c>
-      <c r="E61" s="5">
-        <v>11.9731588898507</v>
-      </c>
-      <c r="F61" s="5">
-        <v>10.361380779999999</v>
-      </c>
-      <c r="G61" s="5">
-        <v>28.364892369203801</v>
-      </c>
-      <c r="H61" s="5">
-        <v>3.0876871630999299</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>3</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2.38833330414427</v>
-      </c>
-      <c r="D62" s="5">
-        <v>10.1081056296547</v>
-      </c>
-      <c r="E62" s="5">
-        <v>8.9907552290728603</v>
-      </c>
-      <c r="F62" s="5">
-        <v>4.5034709590000004</v>
-      </c>
-      <c r="G62" s="5">
-        <v>8.3161860117982602</v>
-      </c>
-      <c r="H62" s="5">
-        <v>8.43692660593927</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4">
-        <v>2.3278645356958901E-2</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0.107324722468338</v>
-      </c>
-      <c r="E63" s="5">
-        <v>9.49803485809258E-2</v>
-      </c>
-      <c r="F63" s="5">
-        <v>4.3764380999999998E-2</v>
-      </c>
-      <c r="G63" s="5">
-        <v>8.4313646328874295E-2</v>
-      </c>
-      <c r="H63" s="5">
-        <v>8.3093475505859396E-2</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4">
-        <v>5.4032858973329496</v>
-      </c>
-      <c r="D64" s="5">
-        <v>22.6172431750025</v>
-      </c>
-      <c r="E64" s="5">
-        <v>20.334195948232299</v>
-      </c>
-      <c r="F64" s="5">
-        <v>10.00316917</v>
-      </c>
-      <c r="G64" s="5">
-        <v>18.619792225804801</v>
-      </c>
-      <c r="H64" s="5">
-        <v>18.945422885184801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.92893074130148401</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3.8883473626893199</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3.4958468004227998</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1.719740826</v>
-      </c>
-      <c r="G65" s="5">
-        <v>3.20110720103373</v>
-      </c>
-      <c r="H65" s="5">
-        <v>3.2570894932084999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="4">
-        <v>7.9829047302852896</v>
-      </c>
-      <c r="D66" s="5">
-        <v>24.992445593180101</v>
-      </c>
-      <c r="E66" s="5">
-        <v>22.718657081324999</v>
-      </c>
-      <c r="F66" s="5">
-        <v>11.30102007</v>
-      </c>
-      <c r="G66" s="5">
-        <v>20.798179429099299</v>
-      </c>
-      <c r="H66" s="5">
-        <v>19.248866490420401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>6</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="5">
-        <v>16.298604078411099</v>
-      </c>
-      <c r="D67" s="5">
-        <v>15.3479708819725</v>
-      </c>
-      <c r="E67" s="5">
-        <v>8.5299414845097203</v>
-      </c>
-      <c r="F67" s="4">
-        <v>6.9097276358613504</v>
-      </c>
-      <c r="G67" s="5">
-        <v>11.135076301626301</v>
-      </c>
-      <c r="H67" s="5">
-        <v>8.9145107093767102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0.18154980648094399</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0.16959491773940599</v>
-      </c>
-      <c r="E68" s="5">
-        <v>8.7403337521593696E-2</v>
-      </c>
-      <c r="F68" s="4">
-        <v>7.0437240426759307E-2</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0.11140438304122</v>
-      </c>
-      <c r="H68" s="5">
-        <v>8.6827631185702997E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5">
-        <v>40.329618061850901</v>
-      </c>
-      <c r="D69" s="5">
-        <v>37.0125726115132</v>
-      </c>
-      <c r="E69" s="5">
-        <v>20.396159098756701</v>
-      </c>
-      <c r="F69" s="4">
-        <v>17.144054621543301</v>
-      </c>
-      <c r="G69" s="5">
-        <v>26.0585980043493</v>
-      </c>
-      <c r="H69" s="5">
-        <v>20.924690925741299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="5">
-        <v>1.37246096806216</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1.2595782870783001</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.69410357961978497</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0.58343091090790999</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0.88680256253709799</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0.71209009518267596</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="5">
-        <v>47.208703814163997</v>
-      </c>
-      <c r="D71" s="5">
-        <v>41.596364289755201</v>
-      </c>
-      <c r="E71" s="5">
-        <v>23.012326076736201</v>
-      </c>
-      <c r="F71" s="4">
-        <v>24.2034049483979</v>
-      </c>
-      <c r="G71" s="5">
-        <v>28.610522323873798</v>
-      </c>
-      <c r="H71" s="5">
-        <v>22.612395033193302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>12</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="5">
-        <v>18.7126653956262</v>
-      </c>
-      <c r="D72" s="5">
-        <v>19.391487530249702</v>
-      </c>
-      <c r="E72" s="5">
-        <v>18.233476522790198</v>
-      </c>
-      <c r="F72" s="4">
-        <v>13.52220295</v>
-      </c>
-      <c r="G72" s="5">
-        <v>20.735551132711699</v>
-      </c>
-      <c r="H72" s="5">
-        <v>19.8674197531749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0.21354563202250201</v>
-      </c>
-      <c r="D73" s="5">
-        <v>0.22730113393045001</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0.21688559696340801</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.13891215500000001</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0.194002433221141</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0.18651400919453201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="5">
-        <v>47.884987250940398</v>
-      </c>
-      <c r="D74" s="5">
-        <v>50.231411997481999</v>
-      </c>
-      <c r="E74" s="5">
-        <v>47.8104767520595</v>
-      </c>
-      <c r="F74" s="4">
-        <v>33.323136550000001</v>
-      </c>
-      <c r="G74" s="5">
-        <v>48.963505530181799</v>
-      </c>
-      <c r="H74" s="5">
-        <v>46.230466109769601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1.37271559899023</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1.4399803939990501</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1.3705796117012199</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0.95527203800000005</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1.40363340748733</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1.3252855565127799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="5">
-        <v>60.100302090625497</v>
-      </c>
-      <c r="D76" s="5">
-        <v>66.534025685258101</v>
-      </c>
-      <c r="E76" s="5">
-        <v>68.297493358168495</v>
-      </c>
-      <c r="F76" s="4">
-        <v>46.280849660000001</v>
-      </c>
-      <c r="G76" s="5">
-        <v>62.872953396058698</v>
-      </c>
-      <c r="H76" s="5">
-        <v>60.135614446367498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>24</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="5">
-        <v>36.950789558964601</v>
-      </c>
-      <c r="D77" s="5">
-        <v>30.7587978892495</v>
-      </c>
-      <c r="E77" s="5">
-        <v>29.899719114350901</v>
-      </c>
-      <c r="F77" s="5">
-        <v>20.465773090473299</v>
-      </c>
-      <c r="G77" s="5">
-        <v>29.525443493917699</v>
-      </c>
-      <c r="H77" s="5">
-        <v>26.5149415697996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="5">
-        <v>0.444136386710341</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0.36676949658421298</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0.34548717479945801</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0.22284138045570101</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0.31938849283802201</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0.30766203436138501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="5">
-        <v>90.807149223944705</v>
-      </c>
-      <c r="D79" s="5">
-        <v>77.414344148230796</v>
-      </c>
-      <c r="E79" s="5">
-        <v>72.859375394384003</v>
-      </c>
-      <c r="F79" s="5">
-        <v>51.073391944437297</v>
-      </c>
-      <c r="G79" s="5">
-        <v>74.866291917796104</v>
-      </c>
-      <c r="H79" s="5">
-        <v>69.095372389506096</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1.4792481799669801</v>
-      </c>
-      <c r="D80" s="5">
-        <v>1.26107942671117</v>
-      </c>
-      <c r="E80" s="5">
-        <v>1.1868789998007601</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0.83198539679106498</v>
-      </c>
-      <c r="G80" s="5">
-        <v>1.2195716637592</v>
-      </c>
-      <c r="H80" s="5">
-        <v>1.1255634024943699</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="5">
-        <v>103.19442382448401</v>
-      </c>
-      <c r="D81" s="5">
-        <v>95.409838521899601</v>
-      </c>
-      <c r="E81" s="5">
-        <v>88.810457571105601</v>
-      </c>
-      <c r="F81" s="5">
-        <v>73.124234737491193</v>
-      </c>
-      <c r="G81" s="5">
-        <v>97.851710239272094</v>
-      </c>
-      <c r="H81" s="5">
-        <v>96.205474017824201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
